--- a/Reports & Records/SENSYS_Engineering_Documentation_Weekly Status Report_20130729_20130802.xlsx
+++ b/Reports & Records/SENSYS_Engineering_Documentation_Weekly Status Report_20130729_20130802.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\team.scm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\team.scm\Documents\GitHubVisualStudio\Documentation\Reports &amp; Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1609,7 +1609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="172">
   <si>
     <t>Weekly Project Status Report</t>
   </si>
@@ -3971,74 +3971,89 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4046,6 +4061,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4055,26 +4076,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4085,21 +4091,15 @@
     <xf numFmtId="0" fontId="42" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4126,6 +4126,27 @@
     </xf>
     <xf numFmtId="164" fontId="36" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4143,29 +4164,8 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11851,11 +11851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1094795072"/>
-        <c:axId val="-1094791264"/>
+        <c:axId val="373436096"/>
+        <c:axId val="373440448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1094795072"/>
+        <c:axId val="373436096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11875,14 +11875,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1094791264"/>
+        <c:crossAx val="373440448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1094791264"/>
+        <c:axId val="373440448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11893,7 +11893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1094795072"/>
+        <c:crossAx val="373436096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12256,11 +12256,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1094786912"/>
-        <c:axId val="-1094794528"/>
+        <c:axId val="373435552"/>
+        <c:axId val="373436640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1094786912"/>
+        <c:axId val="373435552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12280,14 +12280,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1094794528"/>
+        <c:crossAx val="373436640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1094794528"/>
+        <c:axId val="373436640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12298,7 +12298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1094786912"/>
+        <c:crossAx val="373435552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12562,11 +12562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1094790176"/>
-        <c:axId val="-1094789632"/>
+        <c:axId val="328960448"/>
+        <c:axId val="450051280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1094790176"/>
+        <c:axId val="328960448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12586,14 +12586,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1094789632"/>
+        <c:crossAx val="450051280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1094789632"/>
+        <c:axId val="450051280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12604,7 +12604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1094790176"/>
+        <c:crossAx val="328960448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12967,11 +12967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1094793984"/>
-        <c:axId val="-1094789088"/>
+        <c:axId val="450050192"/>
+        <c:axId val="450052368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1094793984"/>
+        <c:axId val="450050192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12991,14 +12991,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1094789088"/>
+        <c:crossAx val="450052368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1094789088"/>
+        <c:axId val="450052368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13009,7 +13009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1094793984"/>
+        <c:crossAx val="450050192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14252,10 +14252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I86"/>
+  <dimension ref="B1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:H79"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14273,44 +14273,44 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="219"/>
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
     </row>
     <row r="6" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
     </row>
     <row r="7" spans="2:9" s="54" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="109" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="128"/>
-      <c r="D7" s="232" t="s">
+      <c r="D7" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="233"/>
+      <c r="E7" s="223"/>
       <c r="F7" s="110" t="s">
         <v>58</v>
       </c>
@@ -14323,10 +14323,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="128"/>
-      <c r="D8" s="234" t="s">
+      <c r="D8" s="224" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="235"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="111" t="s">
         <v>37</v>
       </c>
@@ -14335,16 +14335,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
     </row>
     <row r="11" spans="2:9" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="56" t="s">
@@ -14525,16 +14525,16 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
     </row>
     <row r="26" spans="2:9" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="56" t="s">
@@ -14971,16 +14971,16 @@
       <c r="I45" s="176"/>
     </row>
     <row r="46" spans="2:9" s="54" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="231" t="s">
+      <c r="B46" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="231"/>
-      <c r="D46" s="231"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="231"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="231"/>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
+      <c r="E46" s="221"/>
+      <c r="F46" s="221"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="221"/>
+      <c r="I46" s="221"/>
     </row>
     <row r="47" spans="2:9" s="54" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="62" t="s">
@@ -15072,25 +15072,25 @@
       <c r="I52"/>
     </row>
     <row r="53" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="219"/>
-      <c r="D53" s="219"/>
-      <c r="E53" s="219"/>
-      <c r="F53" s="219"/>
-      <c r="G53" s="219"/>
-      <c r="H53" s="219"/>
-      <c r="I53" s="219"/>
+      <c r="C53" s="226"/>
+      <c r="D53" s="226"/>
+      <c r="E53" s="226"/>
+      <c r="F53" s="226"/>
+      <c r="G53" s="226"/>
+      <c r="H53" s="226"/>
+      <c r="I53" s="226"/>
     </row>
     <row r="54" spans="2:9" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B54" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="236" t="s">
+      <c r="C54" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="237"/>
+      <c r="D54" s="228"/>
       <c r="E54" s="64" t="s">
         <v>56</v>
       </c>
@@ -15107,11 +15107,11 @@
         <v>57</v>
       </c>
       <c r="D55" s="167"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="221"/>
-      <c r="H55" s="221"/>
-      <c r="I55" s="221"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="216"/>
+      <c r="G55" s="216"/>
+      <c r="H55" s="216"/>
+      <c r="I55" s="216"/>
     </row>
     <row r="56" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="105">
@@ -15121,11 +15121,11 @@
         <v>119</v>
       </c>
       <c r="D56" s="167"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="218"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="230"/>
+      <c r="G56" s="230"/>
+      <c r="H56" s="230"/>
+      <c r="I56" s="230"/>
     </row>
     <row r="57" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="53"/>
@@ -15138,25 +15138,25 @@
       <c r="I57"/>
     </row>
     <row r="58" spans="2:9" s="54" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="219" t="s">
+      <c r="B58" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="219"/>
-      <c r="D58" s="219"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="226"/>
     </row>
     <row r="59" spans="2:9" s="54" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B59" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="222" t="s">
+      <c r="C59" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="223"/>
+      <c r="D59" s="233"/>
       <c r="E59" s="136" t="s">
         <v>63</v>
       </c>
@@ -15177,8 +15177,8 @@
       <c r="B60" s="105">
         <v>1</v>
       </c>
-      <c r="C60" s="224"/>
-      <c r="D60" s="225"/>
+      <c r="C60" s="234"/>
+      <c r="D60" s="235"/>
       <c r="E60" s="145"/>
       <c r="F60" s="145"/>
       <c r="G60" s="145"/>
@@ -15189,8 +15189,8 @@
       <c r="B61" s="105">
         <v>3</v>
       </c>
-      <c r="C61" s="224"/>
-      <c r="D61" s="225"/>
+      <c r="C61" s="234"/>
+      <c r="D61" s="235"/>
       <c r="E61" s="145"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -15201,8 +15201,8 @@
       <c r="B62" s="105">
         <v>4</v>
       </c>
-      <c r="C62" s="224"/>
-      <c r="D62" s="225"/>
+      <c r="C62" s="234"/>
+      <c r="D62" s="235"/>
       <c r="E62" s="146"/>
       <c r="F62" s="146"/>
       <c r="G62" s="146"/>
@@ -15213,8 +15213,8 @@
       <c r="B63" s="105">
         <v>5</v>
       </c>
-      <c r="C63" s="224"/>
-      <c r="D63" s="225"/>
+      <c r="C63" s="234"/>
+      <c r="D63" s="235"/>
       <c r="E63" s="145"/>
       <c r="F63" s="145"/>
       <c r="G63" s="145"/>
@@ -15225,8 +15225,8 @@
       <c r="B64" s="105">
         <v>6</v>
       </c>
-      <c r="C64" s="224"/>
-      <c r="D64" s="225"/>
+      <c r="C64" s="234"/>
+      <c r="D64" s="235"/>
       <c r="E64" s="146"/>
       <c r="F64" s="146"/>
       <c r="G64" s="146"/>
@@ -15237,8 +15237,8 @@
       <c r="B65" s="105">
         <v>7</v>
       </c>
-      <c r="C65" s="224"/>
-      <c r="D65" s="225"/>
+      <c r="C65" s="234"/>
+      <c r="D65" s="235"/>
       <c r="E65" s="148"/>
       <c r="F65" s="145"/>
       <c r="G65" s="145"/>
@@ -15249,8 +15249,8 @@
       <c r="B66" s="105">
         <v>8</v>
       </c>
-      <c r="C66" s="224"/>
-      <c r="D66" s="225"/>
+      <c r="C66" s="234"/>
+      <c r="D66" s="235"/>
       <c r="E66" s="145"/>
       <c r="F66" s="145"/>
       <c r="G66" s="145"/>
@@ -15268,15 +15268,15 @@
       <c r="I67" s="213"/>
     </row>
     <row r="68" spans="2:9" s="54" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="219" t="s">
+      <c r="B68" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="219"/>
-      <c r="D68" s="219"/>
-      <c r="E68" s="219"/>
-      <c r="F68" s="219"/>
-      <c r="G68" s="219"/>
-      <c r="H68" s="219"/>
+      <c r="C68" s="226"/>
+      <c r="D68" s="226"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="226"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
       <c r="I68"/>
     </row>
     <row r="69" spans="2:9" s="54" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15296,28 +15296,28 @@
       <c r="B70" s="105">
         <v>1</v>
       </c>
-      <c r="C70" s="220" t="s">
+      <c r="C70" s="231" t="s">
         <v>171</v>
       </c>
-      <c r="D70" s="221"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
-      <c r="G70" s="221"/>
-      <c r="H70" s="221"/>
+      <c r="D70" s="216"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
+      <c r="H70" s="216"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="105">
         <f>B70+1</f>
         <v>2</v>
       </c>
-      <c r="C71" s="220" t="s">
+      <c r="C71" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="D71" s="221"/>
-      <c r="E71" s="221"/>
-      <c r="F71" s="221"/>
-      <c r="G71" s="221"/>
-      <c r="H71" s="221"/>
+      <c r="D71" s="216"/>
+      <c r="E71" s="216"/>
+      <c r="F71" s="216"/>
+      <c r="G71" s="216"/>
+      <c r="H71" s="216"/>
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15325,12 +15325,12 @@
         <f t="shared" ref="B72:B74" si="0">B71+1</f>
         <v>3</v>
       </c>
-      <c r="C72" s="217"/>
-      <c r="D72" s="218"/>
-      <c r="E72" s="218"/>
-      <c r="F72" s="218"/>
-      <c r="G72" s="218"/>
-      <c r="H72" s="218"/>
+      <c r="C72" s="229"/>
+      <c r="D72" s="230"/>
+      <c r="E72" s="230"/>
+      <c r="F72" s="230"/>
+      <c r="G72" s="230"/>
+      <c r="H72" s="230"/>
       <c r="I72" s="54"/>
     </row>
     <row r="73" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
@@ -15338,24 +15338,24 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C73" s="215"/>
-      <c r="D73" s="216"/>
-      <c r="E73" s="216"/>
-      <c r="F73" s="216"/>
-      <c r="G73" s="216"/>
-      <c r="H73" s="216"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="237"/>
+      <c r="E73" s="237"/>
+      <c r="F73" s="237"/>
+      <c r="G73" s="237"/>
+      <c r="H73" s="237"/>
     </row>
     <row r="74" spans="2:9" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="105">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C74" s="217"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218"/>
+      <c r="C74" s="229"/>
+      <c r="D74" s="230"/>
+      <c r="E74" s="230"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230"/>
     </row>
     <row r="75" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="53"/>
@@ -15368,15 +15368,15 @@
       <c r="I75"/>
     </row>
     <row r="76" spans="2:9" s="54" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="219" t="s">
+      <c r="B76" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="219"/>
-      <c r="G76" s="219"/>
-      <c r="H76" s="219"/>
+      <c r="C76" s="226"/>
+      <c r="D76" s="226"/>
+      <c r="E76" s="226"/>
+      <c r="F76" s="226"/>
+      <c r="G76" s="226"/>
+      <c r="H76" s="226"/>
       <c r="I76"/>
     </row>
     <row r="77" spans="2:9" s="54" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15396,94 +15396,136 @@
       <c r="B78" s="105">
         <v>1</v>
       </c>
-      <c r="C78" s="220" t="s">
+      <c r="C78" s="231" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="221"/>
-      <c r="E78" s="221"/>
-      <c r="F78" s="221"/>
-      <c r="G78" s="221"/>
-      <c r="H78" s="221"/>
+      <c r="D78" s="216"/>
+      <c r="E78" s="216"/>
+      <c r="F78" s="216"/>
+      <c r="G78" s="216"/>
+      <c r="H78" s="216"/>
     </row>
     <row r="79" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="105">
         <v>2</v>
       </c>
-      <c r="C79" s="220" t="s">
+      <c r="C79" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="221"/>
-      <c r="E79" s="221"/>
-      <c r="F79" s="221"/>
-      <c r="G79" s="221"/>
-      <c r="H79" s="221"/>
+      <c r="D79" s="216"/>
+      <c r="E79" s="216"/>
+      <c r="F79" s="216"/>
+      <c r="G79" s="216"/>
+      <c r="H79" s="216"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="105">
         <v>3</v>
       </c>
-      <c r="C80" s="215"/>
-      <c r="D80" s="216"/>
-      <c r="E80" s="216"/>
-      <c r="F80" s="216"/>
-      <c r="G80" s="216"/>
-      <c r="H80" s="216"/>
+      <c r="C80" s="236"/>
+      <c r="D80" s="237"/>
+      <c r="E80" s="237"/>
+      <c r="F80" s="237"/>
+      <c r="G80" s="237"/>
+      <c r="H80" s="237"/>
       <c r="I80" s="54"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="60">
         <v>4</v>
       </c>
-      <c r="C81" s="217"/>
-      <c r="D81" s="218"/>
-      <c r="E81" s="218"/>
-      <c r="F81" s="218"/>
-      <c r="G81" s="218"/>
-      <c r="H81" s="218"/>
+      <c r="C81" s="229"/>
+      <c r="D81" s="230"/>
+      <c r="E81" s="230"/>
+      <c r="F81" s="230"/>
+      <c r="G81" s="230"/>
+      <c r="H81" s="230"/>
       <c r="I81" s="54"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="105">
         <v>5</v>
       </c>
-      <c r="C82" s="215"/>
-      <c r="D82" s="216"/>
-      <c r="E82" s="216"/>
-      <c r="F82" s="216"/>
-      <c r="G82" s="216"/>
-      <c r="H82" s="216"/>
+      <c r="C82" s="236"/>
+      <c r="D82" s="237"/>
+      <c r="E82" s="237"/>
+      <c r="F82" s="237"/>
+      <c r="G82" s="237"/>
+      <c r="H82" s="237"/>
       <c r="I82" s="54"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="60">
         <v>6</v>
       </c>
-      <c r="C83" s="217"/>
-      <c r="D83" s="218"/>
-      <c r="E83" s="218"/>
-      <c r="F83" s="218"/>
-      <c r="G83" s="218"/>
-      <c r="H83" s="218"/>
+      <c r="C83" s="229"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
+      <c r="F83" s="230"/>
+      <c r="G83" s="230"/>
+      <c r="H83" s="230"/>
       <c r="I83" s="54"/>
     </row>
-    <row r="86" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C86" s="133" t="s">
-        <v>86</v>
-      </c>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="105">
+        <v>3</v>
+      </c>
+      <c r="C86" s="236"/>
+      <c r="D86" s="237"/>
+      <c r="E86" s="237"/>
+      <c r="F86" s="237"/>
+      <c r="G86" s="237"/>
+      <c r="H86" s="237"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="60">
+        <v>4</v>
+      </c>
+      <c r="C87" s="229"/>
+      <c r="D87" s="230"/>
+      <c r="E87" s="230"/>
+      <c r="F87" s="230"/>
+      <c r="G87" s="230"/>
+      <c r="H87" s="230"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="105">
+        <v>5</v>
+      </c>
+      <c r="C88" s="236"/>
+      <c r="D88" s="237"/>
+      <c r="E88" s="237"/>
+      <c r="F88" s="237"/>
+      <c r="G88" s="237"/>
+      <c r="H88" s="237"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="60">
+        <v>6</v>
+      </c>
+      <c r="C89" s="229"/>
+      <c r="D89" s="230"/>
+      <c r="E89" s="230"/>
+      <c r="F89" s="230"/>
+      <c r="G89" s="230"/>
+      <c r="H89" s="230"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="C54:D54"/>
+  <mergeCells count="38">
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="B58:I58"/>
@@ -15497,16 +15539,17 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24 H23 H49:H50 F45 H43:H44 H27:H34 H36">
@@ -15562,44 +15605,44 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="219"/>
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
     </row>
     <row r="6" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
     </row>
     <row r="7" spans="2:9" s="54" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="109" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="128"/>
-      <c r="D7" s="232" t="s">
+      <c r="D7" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="233"/>
+      <c r="E7" s="223"/>
       <c r="F7" s="110" t="s">
         <v>58</v>
       </c>
@@ -15612,10 +15655,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="128"/>
-      <c r="D8" s="234" t="s">
+      <c r="D8" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="235"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="111" t="s">
         <v>37</v>
       </c>
@@ -15624,16 +15667,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="56" t="s">
@@ -15746,16 +15789,16 @@
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
     </row>
     <row r="20" spans="2:9" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="56" t="s">
@@ -15894,16 +15937,16 @@
       <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="231" t="s">
+      <c r="B27" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="62" t="s">
@@ -15983,25 +16026,25 @@
       <c r="I32" s="99"/>
     </row>
     <row r="35" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="219" t="s">
+      <c r="B35" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="236" t="s">
+      <c r="C36" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="237"/>
+      <c r="D36" s="228"/>
       <c r="E36" s="64" t="s">
         <v>56</v>
       </c>
@@ -16018,11 +16061,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="143"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="221"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
-      <c r="I37" s="221"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="105">
@@ -16032,32 +16075,32 @@
         <v>3</v>
       </c>
       <c r="D38" s="143"/>
-      <c r="E38" s="226"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="221"/>
-      <c r="I38" s="221"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
     </row>
     <row r="40" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="219" t="s">
+      <c r="B40" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="226"/>
     </row>
     <row r="41" spans="2:9" s="54" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="247" t="s">
+      <c r="C41" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="223"/>
+      <c r="D41" s="233"/>
       <c r="E41" s="136" t="s">
         <v>63</v>
       </c>
@@ -16078,8 +16121,8 @@
       <c r="B42" s="137">
         <v>1</v>
       </c>
-      <c r="C42" s="248"/>
-      <c r="D42" s="249"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="240"/>
       <c r="E42" s="145"/>
       <c r="F42" s="145"/>
       <c r="G42" s="145"/>
@@ -16090,8 +16133,8 @@
       <c r="B43" s="137">
         <v>2</v>
       </c>
-      <c r="C43" s="248"/>
-      <c r="D43" s="249"/>
+      <c r="C43" s="239"/>
+      <c r="D43" s="240"/>
       <c r="E43" s="101"/>
       <c r="F43" s="101"/>
       <c r="G43" s="101"/>
@@ -16102,8 +16145,8 @@
       <c r="B44" s="137">
         <v>3</v>
       </c>
-      <c r="C44" s="248"/>
-      <c r="D44" s="249"/>
+      <c r="C44" s="239"/>
+      <c r="D44" s="240"/>
       <c r="E44" s="138"/>
       <c r="F44" s="138"/>
       <c r="G44" s="138"/>
@@ -16114,8 +16157,8 @@
       <c r="B45" s="140">
         <v>4</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="249"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="240"/>
       <c r="E45" s="101"/>
       <c r="F45" s="101"/>
       <c r="G45" s="101"/>
@@ -16147,15 +16190,15 @@
       <c r="I47" s="102"/>
     </row>
     <row r="49" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="219" t="s">
+      <c r="B49" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="219"/>
-      <c r="D49" s="219"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="219"/>
-      <c r="G49" s="219"/>
-      <c r="H49" s="219"/>
+      <c r="C49" s="226"/>
+      <c r="D49" s="226"/>
+      <c r="E49" s="226"/>
+      <c r="F49" s="226"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
     </row>
     <row r="50" spans="2:8" s="54" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B50" s="63" t="s">
@@ -16174,67 +16217,67 @@
       <c r="B51" s="105">
         <v>1</v>
       </c>
-      <c r="C51" s="243"/>
-      <c r="D51" s="244"/>
-      <c r="E51" s="244"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="244"/>
-      <c r="H51" s="244"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="241"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
     </row>
     <row r="52" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="105">
         <v>2</v>
       </c>
-      <c r="C52" s="238"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="239"/>
-      <c r="F52" s="238"/>
-      <c r="G52" s="239"/>
-      <c r="H52" s="239"/>
+      <c r="C52" s="243"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="244"/>
+      <c r="H52" s="244"/>
     </row>
     <row r="53" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="60">
         <v>4</v>
       </c>
-      <c r="C53" s="238"/>
-      <c r="D53" s="239"/>
-      <c r="E53" s="239"/>
-      <c r="F53" s="238"/>
-      <c r="G53" s="239"/>
-      <c r="H53" s="239"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="244"/>
     </row>
     <row r="54" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="105">
         <v>5</v>
       </c>
-      <c r="C54" s="215"/>
-      <c r="D54" s="216"/>
-      <c r="E54" s="216"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="216"/>
-      <c r="H54" s="216"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="237"/>
+      <c r="F54" s="237"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="237"/>
     </row>
     <row r="55" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="60">
         <v>6</v>
       </c>
-      <c r="C55" s="217"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
-      <c r="H55" s="218"/>
+      <c r="C55" s="229"/>
+      <c r="D55" s="230"/>
+      <c r="E55" s="230"/>
+      <c r="F55" s="230"/>
+      <c r="G55" s="230"/>
+      <c r="H55" s="230"/>
     </row>
     <row r="57" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="219" t="s">
+      <c r="B57" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="219"/>
-      <c r="D57" s="219"/>
-      <c r="E57" s="219"/>
-      <c r="F57" s="219"/>
-      <c r="G57" s="219"/>
-      <c r="H57" s="219"/>
+      <c r="C57" s="226"/>
+      <c r="D57" s="226"/>
+      <c r="E57" s="226"/>
+      <c r="F57" s="226"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
     </row>
     <row r="58" spans="2:8" s="54" customFormat="1" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B58" s="63" t="s">
@@ -16253,56 +16296,56 @@
       <c r="B59" s="105">
         <v>1</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="221"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221"/>
-      <c r="H59" s="221"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="216"/>
+      <c r="E59" s="216"/>
+      <c r="F59" s="216"/>
+      <c r="G59" s="216"/>
+      <c r="H59" s="216"/>
     </row>
     <row r="60" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="105">
         <v>2</v>
       </c>
-      <c r="C60" s="242"/>
-      <c r="D60" s="241"/>
-      <c r="E60" s="241"/>
-      <c r="F60" s="241"/>
-      <c r="G60" s="241"/>
-      <c r="H60" s="241"/>
+      <c r="C60" s="249"/>
+      <c r="D60" s="248"/>
+      <c r="E60" s="248"/>
+      <c r="F60" s="248"/>
+      <c r="G60" s="248"/>
+      <c r="H60" s="248"/>
     </row>
     <row r="61" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="105">
         <v>3</v>
       </c>
-      <c r="C61" s="220"/>
-      <c r="D61" s="221"/>
-      <c r="E61" s="221"/>
-      <c r="F61" s="221"/>
-      <c r="G61" s="221"/>
-      <c r="H61" s="221"/>
+      <c r="C61" s="231"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="216"/>
+      <c r="H61" s="216"/>
     </row>
     <row r="62" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="60">
         <v>4</v>
       </c>
-      <c r="C62" s="240"/>
-      <c r="D62" s="241"/>
-      <c r="E62" s="241"/>
-      <c r="F62" s="241"/>
-      <c r="G62" s="241"/>
-      <c r="H62" s="241"/>
+      <c r="C62" s="247"/>
+      <c r="D62" s="248"/>
+      <c r="E62" s="248"/>
+      <c r="F62" s="248"/>
+      <c r="G62" s="248"/>
+      <c r="H62" s="248"/>
     </row>
     <row r="63" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="105">
         <v>5</v>
       </c>
-      <c r="C63" s="220"/>
-      <c r="D63" s="221"/>
-      <c r="E63" s="221"/>
-      <c r="F63" s="221"/>
-      <c r="G63" s="221"/>
-      <c r="H63" s="221"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="216"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="216"/>
+      <c r="H63" s="216"/>
     </row>
     <row r="66" spans="3:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C66" s="133" t="s">
@@ -16311,6 +16354,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="E37:I37"/>
@@ -16324,28 +16389,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 F21:F25 E26 F12:F17">
@@ -16391,44 +16434,44 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="219"/>
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
     </row>
     <row r="6" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
     </row>
     <row r="7" spans="2:9" s="54" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="109" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="128"/>
-      <c r="D7" s="253" t="s">
+      <c r="D7" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="254"/>
+      <c r="E7" s="251"/>
       <c r="F7" s="110" t="s">
         <v>58</v>
       </c>
@@ -16441,10 +16484,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="128"/>
-      <c r="D8" s="234" t="s">
+      <c r="D8" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="235"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="111" t="s">
         <v>37</v>
       </c>
@@ -16453,16 +16496,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
     </row>
     <row r="11" spans="2:9" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="56" t="s">
@@ -16681,16 +16724,16 @@
       <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="2:9" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="56" t="s">
@@ -16821,16 +16864,16 @@
       <c r="H33" s="59"/>
     </row>
     <row r="34" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="231"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="231"/>
-      <c r="H34" s="231"/>
-      <c r="I34" s="231"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
     </row>
     <row r="35" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="62" t="s">
@@ -16932,16 +16975,16 @@
       <c r="I41" s="99"/>
     </row>
     <row r="43" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="231" t="s">
+      <c r="B43" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="231"/>
-      <c r="D43" s="231"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="231"/>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="231"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
     </row>
     <row r="44" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="62" t="s">
@@ -17047,25 +17090,25 @@
       <c r="I50" s="99"/>
     </row>
     <row r="52" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="219" t="s">
+      <c r="B52" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="219"/>
-      <c r="D52" s="219"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
-      <c r="G52" s="219"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="219"/>
+      <c r="C52" s="226"/>
+      <c r="D52" s="226"/>
+      <c r="E52" s="226"/>
+      <c r="F52" s="226"/>
+      <c r="G52" s="226"/>
+      <c r="H52" s="226"/>
+      <c r="I52" s="226"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B53" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="236" t="s">
+      <c r="C53" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="237"/>
+      <c r="D53" s="228"/>
       <c r="E53" s="64" t="s">
         <v>56</v>
       </c>
@@ -17078,70 +17121,70 @@
       <c r="B54" s="105">
         <v>1</v>
       </c>
-      <c r="C54" s="251"/>
-      <c r="D54" s="252"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="221"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="221"/>
-      <c r="I54" s="221"/>
+      <c r="C54" s="253"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="215"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="216"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="216"/>
     </row>
     <row r="55" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="105">
         <v>2</v>
       </c>
-      <c r="C55" s="250"/>
+      <c r="C55" s="252"/>
       <c r="D55" s="246"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
-      <c r="H55" s="218"/>
-      <c r="I55" s="218"/>
+      <c r="E55" s="229"/>
+      <c r="F55" s="230"/>
+      <c r="G55" s="230"/>
+      <c r="H55" s="230"/>
+      <c r="I55" s="230"/>
     </row>
     <row r="56" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="105">
         <v>3</v>
       </c>
-      <c r="C56" s="250"/>
+      <c r="C56" s="252"/>
       <c r="D56" s="246"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="216"/>
-      <c r="G56" s="216"/>
-      <c r="H56" s="216"/>
-      <c r="I56" s="216"/>
+      <c r="E56" s="236"/>
+      <c r="F56" s="237"/>
+      <c r="G56" s="237"/>
+      <c r="H56" s="237"/>
+      <c r="I56" s="237"/>
     </row>
     <row r="57" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="105">
         <v>4</v>
       </c>
-      <c r="C57" s="250"/>
+      <c r="C57" s="252"/>
       <c r="D57" s="246"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="218"/>
-      <c r="G57" s="218"/>
-      <c r="H57" s="218"/>
-      <c r="I57" s="218"/>
+      <c r="E57" s="229"/>
+      <c r="F57" s="230"/>
+      <c r="G57" s="230"/>
+      <c r="H57" s="230"/>
+      <c r="I57" s="230"/>
     </row>
     <row r="59" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="219"/>
-      <c r="D59" s="219"/>
-      <c r="E59" s="219"/>
-      <c r="F59" s="219"/>
-      <c r="G59" s="219"/>
-      <c r="H59" s="219"/>
-      <c r="I59" s="219"/>
+      <c r="C59" s="226"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="226"/>
     </row>
     <row r="60" spans="2:9" s="54" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B60" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="247" t="s">
+      <c r="C60" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="223"/>
+      <c r="D60" s="233"/>
       <c r="E60" s="136" t="s">
         <v>63</v>
       </c>
@@ -17162,8 +17205,8 @@
       <c r="B61" s="137">
         <v>1</v>
       </c>
-      <c r="C61" s="248"/>
-      <c r="D61" s="249"/>
+      <c r="C61" s="239"/>
+      <c r="D61" s="240"/>
       <c r="E61" s="145"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -17174,8 +17217,8 @@
       <c r="B62" s="137">
         <v>2</v>
       </c>
-      <c r="C62" s="248"/>
-      <c r="D62" s="249"/>
+      <c r="C62" s="239"/>
+      <c r="D62" s="240"/>
       <c r="E62" s="145"/>
       <c r="F62" s="145"/>
       <c r="G62" s="145"/>
@@ -17231,15 +17274,15 @@
       <c r="I66" s="102"/>
     </row>
     <row r="68" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="219" t="s">
+      <c r="B68" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="219"/>
-      <c r="D68" s="219"/>
-      <c r="E68" s="219"/>
-      <c r="F68" s="219"/>
-      <c r="G68" s="219"/>
-      <c r="H68" s="219"/>
+      <c r="C68" s="226"/>
+      <c r="D68" s="226"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="226"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
     </row>
     <row r="69" spans="2:9" s="54" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="63" t="s">
@@ -17258,80 +17301,80 @@
       <c r="B70" s="105">
         <v>1</v>
       </c>
-      <c r="C70" s="220" t="s">
+      <c r="C70" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="221"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
-      <c r="G70" s="221"/>
-      <c r="H70" s="221"/>
+      <c r="D70" s="216"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
+      <c r="H70" s="216"/>
     </row>
     <row r="71" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="105">
         <v>2</v>
       </c>
-      <c r="C71" s="217"/>
-      <c r="D71" s="218"/>
-      <c r="E71" s="218"/>
-      <c r="F71" s="218"/>
-      <c r="G71" s="218"/>
-      <c r="H71" s="218"/>
+      <c r="C71" s="229"/>
+      <c r="D71" s="230"/>
+      <c r="E71" s="230"/>
+      <c r="F71" s="230"/>
+      <c r="G71" s="230"/>
+      <c r="H71" s="230"/>
     </row>
     <row r="72" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="105">
         <v>3</v>
       </c>
-      <c r="C72" s="215"/>
-      <c r="D72" s="216"/>
-      <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
-      <c r="G72" s="216"/>
-      <c r="H72" s="216"/>
+      <c r="C72" s="236"/>
+      <c r="D72" s="237"/>
+      <c r="E72" s="237"/>
+      <c r="F72" s="237"/>
+      <c r="G72" s="237"/>
+      <c r="H72" s="237"/>
     </row>
     <row r="73" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="60">
         <v>4</v>
       </c>
-      <c r="C73" s="217"/>
-      <c r="D73" s="218"/>
-      <c r="E73" s="218"/>
-      <c r="F73" s="218"/>
-      <c r="G73" s="218"/>
-      <c r="H73" s="218"/>
+      <c r="C73" s="229"/>
+      <c r="D73" s="230"/>
+      <c r="E73" s="230"/>
+      <c r="F73" s="230"/>
+      <c r="G73" s="230"/>
+      <c r="H73" s="230"/>
     </row>
     <row r="74" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="105">
         <v>5</v>
       </c>
-      <c r="C74" s="215"/>
-      <c r="D74" s="216"/>
-      <c r="E74" s="216"/>
-      <c r="F74" s="216"/>
-      <c r="G74" s="216"/>
-      <c r="H74" s="216"/>
+      <c r="C74" s="236"/>
+      <c r="D74" s="237"/>
+      <c r="E74" s="237"/>
+      <c r="F74" s="237"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="237"/>
     </row>
     <row r="75" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="60">
         <v>6</v>
       </c>
-      <c r="C75" s="217"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="218"/>
-      <c r="H75" s="218"/>
+      <c r="C75" s="229"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="230"/>
     </row>
     <row r="77" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="219" t="s">
+      <c r="B77" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="219"/>
-      <c r="F77" s="219"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
+      <c r="C77" s="226"/>
+      <c r="D77" s="226"/>
+      <c r="E77" s="226"/>
+      <c r="F77" s="226"/>
+      <c r="G77" s="226"/>
+      <c r="H77" s="226"/>
     </row>
     <row r="78" spans="2:9" s="54" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B78" s="63" t="s">
@@ -17350,69 +17393,69 @@
       <c r="B79" s="105">
         <v>1</v>
       </c>
-      <c r="C79" s="220" t="s">
+      <c r="C79" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="221"/>
-      <c r="E79" s="221"/>
-      <c r="F79" s="221"/>
-      <c r="G79" s="221"/>
-      <c r="H79" s="221"/>
+      <c r="D79" s="216"/>
+      <c r="E79" s="216"/>
+      <c r="F79" s="216"/>
+      <c r="G79" s="216"/>
+      <c r="H79" s="216"/>
     </row>
     <row r="80" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="105">
         <v>2</v>
       </c>
-      <c r="C80" s="217"/>
-      <c r="D80" s="218"/>
-      <c r="E80" s="218"/>
-      <c r="F80" s="218"/>
-      <c r="G80" s="218"/>
-      <c r="H80" s="218"/>
+      <c r="C80" s="229"/>
+      <c r="D80" s="230"/>
+      <c r="E80" s="230"/>
+      <c r="F80" s="230"/>
+      <c r="G80" s="230"/>
+      <c r="H80" s="230"/>
     </row>
     <row r="81" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="105">
         <v>3</v>
       </c>
-      <c r="C81" s="215"/>
-      <c r="D81" s="216"/>
-      <c r="E81" s="216"/>
-      <c r="F81" s="216"/>
-      <c r="G81" s="216"/>
-      <c r="H81" s="216"/>
+      <c r="C81" s="236"/>
+      <c r="D81" s="237"/>
+      <c r="E81" s="237"/>
+      <c r="F81" s="237"/>
+      <c r="G81" s="237"/>
+      <c r="H81" s="237"/>
     </row>
     <row r="82" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="60">
         <v>4</v>
       </c>
-      <c r="C82" s="217"/>
-      <c r="D82" s="218"/>
-      <c r="E82" s="218"/>
-      <c r="F82" s="218"/>
-      <c r="G82" s="218"/>
-      <c r="H82" s="218"/>
+      <c r="C82" s="229"/>
+      <c r="D82" s="230"/>
+      <c r="E82" s="230"/>
+      <c r="F82" s="230"/>
+      <c r="G82" s="230"/>
+      <c r="H82" s="230"/>
     </row>
     <row r="83" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="105">
         <v>5</v>
       </c>
-      <c r="C83" s="215"/>
-      <c r="D83" s="216"/>
-      <c r="E83" s="216"/>
-      <c r="F83" s="216"/>
-      <c r="G83" s="216"/>
-      <c r="H83" s="216"/>
+      <c r="C83" s="236"/>
+      <c r="D83" s="237"/>
+      <c r="E83" s="237"/>
+      <c r="F83" s="237"/>
+      <c r="G83" s="237"/>
+      <c r="H83" s="237"/>
     </row>
     <row r="84" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="60">
         <v>6</v>
       </c>
-      <c r="C84" s="217"/>
-      <c r="D84" s="218"/>
-      <c r="E84" s="218"/>
-      <c r="F84" s="218"/>
-      <c r="G84" s="218"/>
-      <c r="H84" s="218"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="230"/>
+      <c r="E84" s="230"/>
+      <c r="F84" s="230"/>
+      <c r="G84" s="230"/>
+      <c r="H84" s="230"/>
     </row>
     <row r="87" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C87" s="133" t="s">
@@ -17428,31 +17471,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C83:H83"/>
     <mergeCell ref="C84:H84"/>
     <mergeCell ref="C65:D65"/>
@@ -17469,6 +17487,31 @@
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="B77:H77"/>
     <mergeCell ref="B68:H68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H40 H45:H49 F25 H28:H32 F33 H15:H24">
@@ -17518,44 +17561,44 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="219"/>
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
     </row>
     <row r="6" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
     </row>
     <row r="7" spans="2:9" s="54" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="109" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="128"/>
-      <c r="D7" s="253" t="s">
+      <c r="D7" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="254"/>
+      <c r="E7" s="251"/>
       <c r="F7" s="110" t="s">
         <v>58</v>
       </c>
@@ -17568,10 +17611,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="128"/>
-      <c r="D8" s="234" t="s">
+      <c r="D8" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="235"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="111" t="s">
         <v>37</v>
       </c>
@@ -17580,16 +17623,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
     </row>
     <row r="11" spans="2:9" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="56" t="s">
@@ -17746,16 +17789,16 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="56" t="s">
@@ -17852,16 +17895,16 @@
       <c r="H32" s="59"/>
     </row>
     <row r="33" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="231" t="s">
+      <c r="B33" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="231"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="221"/>
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="62" t="s">
@@ -17967,16 +18010,16 @@
       <c r="I40" s="99"/>
     </row>
     <row r="42" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="231" t="s">
+      <c r="B42" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="231"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="231"/>
-      <c r="F42" s="231"/>
-      <c r="G42" s="231"/>
-      <c r="H42" s="231"/>
-      <c r="I42" s="231"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
     </row>
     <row r="43" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="62" t="s">
@@ -18082,25 +18125,25 @@
       <c r="I49" s="99"/>
     </row>
     <row r="51" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="219" t="s">
+      <c r="B51" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
-      <c r="I51" s="219"/>
+      <c r="C51" s="226"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="226"/>
+      <c r="F51" s="226"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
+      <c r="I51" s="226"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B52" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="236" t="s">
+      <c r="C52" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="237"/>
+      <c r="D52" s="228"/>
       <c r="E52" s="64" t="s">
         <v>56</v>
       </c>
@@ -18111,19 +18154,19 @@
     </row>
     <row r="53" spans="2:9" s="54" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="153"/>
-      <c r="C53" s="251"/>
-      <c r="D53" s="252"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="257"/>
-      <c r="G53" s="257"/>
-      <c r="H53" s="257"/>
-      <c r="I53" s="257"/>
+      <c r="C53" s="253"/>
+      <c r="D53" s="254"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="255"/>
+      <c r="G53" s="255"/>
+      <c r="H53" s="255"/>
+      <c r="I53" s="255"/>
     </row>
     <row r="54" spans="2:9" s="54" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="153"/>
-      <c r="C54" s="226"/>
-      <c r="D54" s="221"/>
-      <c r="E54" s="240"/>
+      <c r="C54" s="215"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="247"/>
       <c r="F54" s="256"/>
       <c r="G54" s="256"/>
       <c r="H54" s="256"/>
@@ -18131,46 +18174,46 @@
     </row>
     <row r="55" spans="2:9" s="54" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="153"/>
-      <c r="C55" s="251"/>
-      <c r="D55" s="252"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="257"/>
-      <c r="G55" s="257"/>
-      <c r="H55" s="257"/>
-      <c r="I55" s="257"/>
+      <c r="C55" s="253"/>
+      <c r="D55" s="254"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="255"/>
+      <c r="G55" s="255"/>
+      <c r="H55" s="255"/>
+      <c r="I55" s="255"/>
     </row>
     <row r="56" spans="2:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="105">
         <v>4</v>
       </c>
-      <c r="C56" s="250"/>
+      <c r="C56" s="252"/>
       <c r="D56" s="246"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="218"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="230"/>
+      <c r="G56" s="230"/>
+      <c r="H56" s="230"/>
+      <c r="I56" s="230"/>
     </row>
     <row r="58" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="219" t="s">
+      <c r="B58" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="219"/>
-      <c r="D58" s="219"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="226"/>
     </row>
     <row r="59" spans="2:9" s="54" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="247" t="s">
+      <c r="C59" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="223"/>
+      <c r="D59" s="233"/>
       <c r="E59" s="136" t="s">
         <v>63</v>
       </c>
@@ -18189,10 +18232,10 @@
     </row>
     <row r="60" spans="2:9" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="144"/>
-      <c r="C60" s="255" t="s">
+      <c r="C60" s="257" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="225"/>
+      <c r="D60" s="235"/>
       <c r="E60" s="145"/>
       <c r="F60" s="145"/>
       <c r="G60" s="145"/>
@@ -18201,8 +18244,8 @@
     </row>
     <row r="61" spans="2:9" s="54" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="147"/>
-      <c r="C61" s="255"/>
-      <c r="D61" s="225"/>
+      <c r="C61" s="257"/>
+      <c r="D61" s="235"/>
       <c r="E61" s="145"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -18211,8 +18254,8 @@
     </row>
     <row r="62" spans="2:9" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="147"/>
-      <c r="C62" s="255"/>
-      <c r="D62" s="225"/>
+      <c r="C62" s="257"/>
+      <c r="D62" s="235"/>
       <c r="E62" s="146"/>
       <c r="F62" s="146"/>
       <c r="G62" s="146"/>
@@ -18221,8 +18264,8 @@
     </row>
     <row r="63" spans="2:9" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="147"/>
-      <c r="C63" s="255"/>
-      <c r="D63" s="225"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="235"/>
       <c r="E63" s="145"/>
       <c r="F63" s="145"/>
       <c r="G63" s="145"/>
@@ -18231,8 +18274,8 @@
     </row>
     <row r="64" spans="2:9" s="54" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="147"/>
-      <c r="C64" s="255"/>
-      <c r="D64" s="225"/>
+      <c r="C64" s="257"/>
+      <c r="D64" s="235"/>
       <c r="E64" s="146"/>
       <c r="F64" s="146"/>
       <c r="G64" s="146"/>
@@ -18241,23 +18284,23 @@
     </row>
     <row r="65" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="147"/>
-      <c r="C65" s="255"/>
-      <c r="D65" s="225"/>
+      <c r="C65" s="257"/>
+      <c r="D65" s="235"/>
       <c r="E65" s="148"/>
       <c r="F65" s="145"/>
       <c r="G65" s="145"/>
       <c r="H65" s="145"/>
     </row>
     <row r="66" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="219" t="s">
+      <c r="B66" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="219"/>
-      <c r="D66" s="219"/>
-      <c r="E66" s="219"/>
-      <c r="F66" s="219"/>
-      <c r="G66" s="219"/>
-      <c r="H66" s="219"/>
+      <c r="C66" s="226"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="226"/>
+      <c r="G66" s="226"/>
+      <c r="H66" s="226"/>
     </row>
     <row r="67" spans="2:8" s="54" customFormat="1" ht="141" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B67" s="63" t="s">
@@ -18274,70 +18317,70 @@
     </row>
     <row r="68" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="105"/>
-      <c r="C68" s="220" t="s">
+      <c r="C68" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="221"/>
-      <c r="E68" s="221"/>
-      <c r="F68" s="221"/>
-      <c r="G68" s="221"/>
-      <c r="H68" s="221"/>
+      <c r="D68" s="216"/>
+      <c r="E68" s="216"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="216"/>
+      <c r="H68" s="216"/>
     </row>
     <row r="69" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="105"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="241"/>
-      <c r="E69" s="241"/>
-      <c r="F69" s="241"/>
-      <c r="G69" s="241"/>
-      <c r="H69" s="241"/>
+      <c r="C69" s="249"/>
+      <c r="D69" s="248"/>
+      <c r="E69" s="248"/>
+      <c r="F69" s="248"/>
+      <c r="G69" s="248"/>
+      <c r="H69" s="248"/>
     </row>
     <row r="70" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="105"/>
-      <c r="C70" s="220"/>
-      <c r="D70" s="221"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
-      <c r="G70" s="221"/>
-      <c r="H70" s="221"/>
+      <c r="C70" s="231"/>
+      <c r="D70" s="216"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
+      <c r="H70" s="216"/>
     </row>
     <row r="71" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="60"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="241"/>
-      <c r="E71" s="241"/>
-      <c r="F71" s="241"/>
-      <c r="G71" s="241"/>
-      <c r="H71" s="241"/>
+      <c r="C71" s="249"/>
+      <c r="D71" s="248"/>
+      <c r="E71" s="248"/>
+      <c r="F71" s="248"/>
+      <c r="G71" s="248"/>
+      <c r="H71" s="248"/>
     </row>
     <row r="72" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="105"/>
-      <c r="C72" s="215"/>
-      <c r="D72" s="216"/>
-      <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
-      <c r="G72" s="216"/>
-      <c r="H72" s="216"/>
+      <c r="C72" s="236"/>
+      <c r="D72" s="237"/>
+      <c r="E72" s="237"/>
+      <c r="F72" s="237"/>
+      <c r="G72" s="237"/>
+      <c r="H72" s="237"/>
     </row>
     <row r="73" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="60"/>
-      <c r="C73" s="217"/>
-      <c r="D73" s="218"/>
-      <c r="E73" s="218"/>
-      <c r="F73" s="218"/>
-      <c r="G73" s="218"/>
-      <c r="H73" s="218"/>
+      <c r="C73" s="229"/>
+      <c r="D73" s="230"/>
+      <c r="E73" s="230"/>
+      <c r="F73" s="230"/>
+      <c r="G73" s="230"/>
+      <c r="H73" s="230"/>
     </row>
     <row r="75" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="219" t="s">
+      <c r="B75" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="219"/>
-      <c r="D75" s="219"/>
-      <c r="E75" s="219"/>
-      <c r="F75" s="219"/>
-      <c r="G75" s="219"/>
-      <c r="H75" s="219"/>
+      <c r="C75" s="226"/>
+      <c r="D75" s="226"/>
+      <c r="E75" s="226"/>
+      <c r="F75" s="226"/>
+      <c r="G75" s="226"/>
+      <c r="H75" s="226"/>
     </row>
     <row r="76" spans="2:8" s="54" customFormat="1" ht="141" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B76" s="63" t="s">
@@ -18354,72 +18397,100 @@
     </row>
     <row r="77" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="105"/>
-      <c r="C77" s="220" t="s">
+      <c r="C77" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="221"/>
-      <c r="E77" s="221"/>
-      <c r="F77" s="221"/>
-      <c r="G77" s="221"/>
-      <c r="H77" s="221"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216"/>
+      <c r="F77" s="216"/>
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
     </row>
     <row r="78" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="105">
         <v>2</v>
       </c>
-      <c r="C78" s="217"/>
-      <c r="D78" s="218"/>
-      <c r="E78" s="218"/>
-      <c r="F78" s="218"/>
-      <c r="G78" s="218"/>
-      <c r="H78" s="218"/>
+      <c r="C78" s="229"/>
+      <c r="D78" s="230"/>
+      <c r="E78" s="230"/>
+      <c r="F78" s="230"/>
+      <c r="G78" s="230"/>
+      <c r="H78" s="230"/>
     </row>
     <row r="79" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="105">
         <v>3</v>
       </c>
-      <c r="C79" s="215"/>
-      <c r="D79" s="216"/>
-      <c r="E79" s="216"/>
-      <c r="F79" s="216"/>
-      <c r="G79" s="216"/>
-      <c r="H79" s="216"/>
+      <c r="C79" s="236"/>
+      <c r="D79" s="237"/>
+      <c r="E79" s="237"/>
+      <c r="F79" s="237"/>
+      <c r="G79" s="237"/>
+      <c r="H79" s="237"/>
     </row>
     <row r="80" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="60">
         <v>4</v>
       </c>
-      <c r="C80" s="217"/>
-      <c r="D80" s="218"/>
-      <c r="E80" s="218"/>
-      <c r="F80" s="218"/>
-      <c r="G80" s="218"/>
-      <c r="H80" s="218"/>
+      <c r="C80" s="229"/>
+      <c r="D80" s="230"/>
+      <c r="E80" s="230"/>
+      <c r="F80" s="230"/>
+      <c r="G80" s="230"/>
+      <c r="H80" s="230"/>
     </row>
     <row r="81" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="105">
         <v>5</v>
       </c>
-      <c r="C81" s="215"/>
-      <c r="D81" s="216"/>
-      <c r="E81" s="216"/>
-      <c r="F81" s="216"/>
-      <c r="G81" s="216"/>
-      <c r="H81" s="216"/>
+      <c r="C81" s="236"/>
+      <c r="D81" s="237"/>
+      <c r="E81" s="237"/>
+      <c r="F81" s="237"/>
+      <c r="G81" s="237"/>
+      <c r="H81" s="237"/>
     </row>
     <row r="82" spans="2:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="60">
         <v>6</v>
       </c>
-      <c r="C82" s="217"/>
-      <c r="D82" s="218"/>
-      <c r="E82" s="218"/>
-      <c r="F82" s="218"/>
-      <c r="G82" s="218"/>
-      <c r="H82" s="218"/>
+      <c r="C82" s="229"/>
+      <c r="D82" s="230"/>
+      <c r="E82" s="230"/>
+      <c r="F82" s="230"/>
+      <c r="G82" s="230"/>
+      <c r="H82" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:I56"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:I53"/>
     <mergeCell ref="B2:G2"/>
@@ -18433,34 +18504,6 @@
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B51:I51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32 E24 F28:F31">
@@ -18508,23 +18551,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
     </row>
     <row r="4" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
     </row>
     <row r="6" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="260" t="s">
@@ -18778,47 +18821,47 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
     </row>
     <row r="4" spans="2:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
     </row>
     <row r="6" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
@@ -18984,61 +19027,61 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
     </row>
     <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
     </row>
     <row r="4" spans="1:16" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
     </row>
     <row r="5" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="267"/>
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
+      <c r="A5" s="274"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -19053,10 +19096,10 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="270" t="s">
+      <c r="D7" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="271"/>
+      <c r="E7" s="278"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -19070,10 +19113,10 @@
       <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="270" t="s">
+      <c r="D8" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="272"/>
+      <c r="E8" s="279"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -19087,10 +19130,10 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="275">
+      <c r="D9" s="280">
         <v>41432</v>
       </c>
-      <c r="E9" s="275"/>
+      <c r="E9" s="280"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -19104,10 +19147,10 @@
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="280">
         <v>41438</v>
       </c>
-      <c r="E10" s="275"/>
+      <c r="E10" s="280"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -19121,10 +19164,10 @@
       <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="275">
+      <c r="D11" s="280">
         <v>41438</v>
       </c>
-      <c r="E11" s="275"/>
+      <c r="E11" s="280"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -19138,10 +19181,10 @@
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="275" t="s">
+      <c r="D12" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="275"/>
+      <c r="E12" s="280"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -19164,16 +19207,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="273" t="s">
+      <c r="B14" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="274"/>
-      <c r="D14" s="274"/>
-      <c r="E14" s="274"/>
-      <c r="F14" s="274"/>
-      <c r="G14" s="274"/>
-      <c r="H14" s="274"/>
-      <c r="I14" s="274"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="269"/>
+      <c r="F14" s="269"/>
+      <c r="G14" s="269"/>
+      <c r="H14" s="269"/>
+      <c r="I14" s="269"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -19981,16 +20024,16 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="273" t="s">
+      <c r="B55" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="274"/>
-      <c r="D55" s="274"/>
-      <c r="E55" s="274"/>
-      <c r="F55" s="274"/>
-      <c r="G55" s="274"/>
-      <c r="H55" s="274"/>
-      <c r="I55" s="274"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
@@ -20780,14 +20823,14 @@
     </row>
     <row r="94" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
-      <c r="B94" s="279"/>
-      <c r="C94" s="279"/>
-      <c r="D94" s="279"/>
-      <c r="E94" s="279"/>
-      <c r="F94" s="279"/>
-      <c r="G94" s="279"/>
-      <c r="H94" s="279"/>
-      <c r="I94" s="279"/>
+      <c r="B94" s="270"/>
+      <c r="C94" s="270"/>
+      <c r="D94" s="270"/>
+      <c r="E94" s="270"/>
+      <c r="F94" s="270"/>
+      <c r="G94" s="270"/>
+      <c r="H94" s="270"/>
+      <c r="I94" s="270"/>
       <c r="J94" s="34"/>
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
@@ -21640,14 +21683,14 @@
     </row>
     <row r="137" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18"/>
-      <c r="B137" s="279"/>
-      <c r="C137" s="279"/>
-      <c r="D137" s="279"/>
-      <c r="E137" s="279"/>
-      <c r="F137" s="279"/>
-      <c r="G137" s="279"/>
-      <c r="H137" s="279"/>
-      <c r="I137" s="279"/>
+      <c r="B137" s="270"/>
+      <c r="C137" s="270"/>
+      <c r="D137" s="270"/>
+      <c r="E137" s="270"/>
+      <c r="F137" s="270"/>
+      <c r="G137" s="270"/>
+      <c r="H137" s="270"/>
+      <c r="I137" s="270"/>
       <c r="J137" s="34"/>
       <c r="K137" s="34"/>
       <c r="L137" s="34"/>
@@ -22417,13 +22460,13 @@
       <c r="R176" s="35"/>
     </row>
     <row r="177" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="279"/>
-      <c r="C177" s="279"/>
-      <c r="D177" s="279"/>
-      <c r="E177" s="279"/>
-      <c r="F177" s="279"/>
-      <c r="G177" s="279"/>
-      <c r="H177" s="279"/>
+      <c r="B177" s="270"/>
+      <c r="C177" s="270"/>
+      <c r="D177" s="270"/>
+      <c r="E177" s="270"/>
+      <c r="F177" s="270"/>
+      <c r="G177" s="270"/>
+      <c r="H177" s="270"/>
       <c r="I177" s="35"/>
       <c r="J177" s="35"/>
       <c r="K177" s="35"/>
@@ -22531,23 +22574,23 @@
       <c r="R182" s="35"/>
     </row>
     <row r="183" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="280"/>
-      <c r="C183" s="280"/>
-      <c r="D183" s="280"/>
-      <c r="E183" s="280"/>
-      <c r="F183" s="280"/>
-      <c r="G183" s="280"/>
-      <c r="H183" s="280"/>
-      <c r="I183" s="280"/>
-      <c r="J183" s="280"/>
-      <c r="K183" s="280"/>
-      <c r="L183" s="280"/>
-      <c r="M183" s="280"/>
-      <c r="N183" s="280"/>
-      <c r="O183" s="280"/>
-      <c r="P183" s="280"/>
-      <c r="Q183" s="280"/>
-      <c r="R183" s="280"/>
+      <c r="B183" s="271"/>
+      <c r="C183" s="271"/>
+      <c r="D183" s="271"/>
+      <c r="E183" s="271"/>
+      <c r="F183" s="271"/>
+      <c r="G183" s="271"/>
+      <c r="H183" s="271"/>
+      <c r="I183" s="271"/>
+      <c r="J183" s="271"/>
+      <c r="K183" s="271"/>
+      <c r="L183" s="271"/>
+      <c r="M183" s="271"/>
+      <c r="N183" s="271"/>
+      <c r="O183" s="271"/>
+      <c r="P183" s="271"/>
+      <c r="Q183" s="271"/>
+      <c r="R183" s="271"/>
     </row>
     <row r="184" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="43"/>
@@ -22645,21 +22688,21 @@
       <c r="R188" s="35"/>
     </row>
     <row r="189" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="279"/>
-      <c r="C189" s="279"/>
-      <c r="D189" s="279"/>
-      <c r="E189" s="279"/>
-      <c r="F189" s="279"/>
-      <c r="G189" s="279"/>
-      <c r="H189" s="279"/>
-      <c r="I189" s="279"/>
-      <c r="J189" s="279"/>
-      <c r="K189" s="279"/>
-      <c r="L189" s="279"/>
-      <c r="M189" s="279"/>
-      <c r="N189" s="279"/>
-      <c r="O189" s="279"/>
-      <c r="P189" s="279"/>
+      <c r="B189" s="270"/>
+      <c r="C189" s="270"/>
+      <c r="D189" s="270"/>
+      <c r="E189" s="270"/>
+      <c r="F189" s="270"/>
+      <c r="G189" s="270"/>
+      <c r="H189" s="270"/>
+      <c r="I189" s="270"/>
+      <c r="J189" s="270"/>
+      <c r="K189" s="270"/>
+      <c r="L189" s="270"/>
+      <c r="M189" s="270"/>
+      <c r="N189" s="270"/>
+      <c r="O189" s="270"/>
+      <c r="P189" s="270"/>
       <c r="Q189" s="35"/>
       <c r="R189" s="35"/>
     </row>
@@ -22669,16 +22712,16 @@
       <c r="D190" s="36"/>
       <c r="E190" s="36"/>
       <c r="F190" s="36"/>
-      <c r="G190" s="277"/>
-      <c r="H190" s="277"/>
-      <c r="I190" s="277"/>
-      <c r="J190" s="277"/>
-      <c r="K190" s="277"/>
-      <c r="L190" s="277"/>
-      <c r="M190" s="277"/>
-      <c r="N190" s="277"/>
-      <c r="O190" s="277"/>
-      <c r="P190" s="277"/>
+      <c r="G190" s="267"/>
+      <c r="H190" s="267"/>
+      <c r="I190" s="267"/>
+      <c r="J190" s="267"/>
+      <c r="K190" s="267"/>
+      <c r="L190" s="267"/>
+      <c r="M190" s="267"/>
+      <c r="N190" s="267"/>
+      <c r="O190" s="267"/>
+      <c r="P190" s="267"/>
       <c r="Q190" s="35"/>
       <c r="R190" s="35"/>
     </row>
@@ -22688,16 +22731,16 @@
       <c r="D191" s="33"/>
       <c r="E191" s="33"/>
       <c r="F191" s="33"/>
-      <c r="G191" s="278"/>
-      <c r="H191" s="278"/>
-      <c r="I191" s="278"/>
-      <c r="J191" s="278"/>
-      <c r="K191" s="278"/>
-      <c r="L191" s="278"/>
-      <c r="M191" s="276"/>
-      <c r="N191" s="276"/>
-      <c r="O191" s="278"/>
-      <c r="P191" s="278"/>
+      <c r="G191" s="272"/>
+      <c r="H191" s="272"/>
+      <c r="I191" s="272"/>
+      <c r="J191" s="272"/>
+      <c r="K191" s="272"/>
+      <c r="L191" s="272"/>
+      <c r="M191" s="273"/>
+      <c r="N191" s="273"/>
+      <c r="O191" s="272"/>
+      <c r="P191" s="272"/>
       <c r="Q191" s="35"/>
       <c r="R191" s="35"/>
     </row>
@@ -22707,16 +22750,16 @@
       <c r="D192" s="33"/>
       <c r="E192" s="33"/>
       <c r="F192" s="33"/>
-      <c r="G192" s="278"/>
-      <c r="H192" s="278"/>
-      <c r="I192" s="278"/>
-      <c r="J192" s="278"/>
-      <c r="K192" s="278"/>
-      <c r="L192" s="278"/>
-      <c r="M192" s="276"/>
-      <c r="N192" s="276"/>
-      <c r="O192" s="278"/>
-      <c r="P192" s="278"/>
+      <c r="G192" s="272"/>
+      <c r="H192" s="272"/>
+      <c r="I192" s="272"/>
+      <c r="J192" s="272"/>
+      <c r="K192" s="272"/>
+      <c r="L192" s="272"/>
+      <c r="M192" s="273"/>
+      <c r="N192" s="273"/>
+      <c r="O192" s="272"/>
+      <c r="P192" s="272"/>
       <c r="Q192" s="35"/>
       <c r="R192" s="35"/>
     </row>
@@ -22726,16 +22769,16 @@
       <c r="D193" s="33"/>
       <c r="E193" s="33"/>
       <c r="F193" s="33"/>
-      <c r="G193" s="278"/>
-      <c r="H193" s="278"/>
-      <c r="I193" s="278"/>
-      <c r="J193" s="278"/>
-      <c r="K193" s="278"/>
-      <c r="L193" s="278"/>
-      <c r="M193" s="276"/>
-      <c r="N193" s="276"/>
-      <c r="O193" s="278"/>
-      <c r="P193" s="278"/>
+      <c r="G193" s="272"/>
+      <c r="H193" s="272"/>
+      <c r="I193" s="272"/>
+      <c r="J193" s="272"/>
+      <c r="K193" s="272"/>
+      <c r="L193" s="272"/>
+      <c r="M193" s="273"/>
+      <c r="N193" s="273"/>
+      <c r="O193" s="272"/>
+      <c r="P193" s="272"/>
       <c r="Q193" s="35"/>
       <c r="R193" s="35"/>
     </row>
@@ -22745,16 +22788,16 @@
       <c r="D194" s="33"/>
       <c r="E194" s="33"/>
       <c r="F194" s="33"/>
-      <c r="G194" s="278"/>
-      <c r="H194" s="278"/>
-      <c r="I194" s="278"/>
-      <c r="J194" s="278"/>
-      <c r="K194" s="278"/>
-      <c r="L194" s="278"/>
-      <c r="M194" s="276"/>
-      <c r="N194" s="276"/>
-      <c r="O194" s="278"/>
-      <c r="P194" s="278"/>
+      <c r="G194" s="272"/>
+      <c r="H194" s="272"/>
+      <c r="I194" s="272"/>
+      <c r="J194" s="272"/>
+      <c r="K194" s="272"/>
+      <c r="L194" s="272"/>
+      <c r="M194" s="273"/>
+      <c r="N194" s="273"/>
+      <c r="O194" s="272"/>
+      <c r="P194" s="272"/>
       <c r="Q194" s="35"/>
       <c r="R194" s="35"/>
     </row>
@@ -22764,16 +22807,16 @@
       <c r="D195" s="33"/>
       <c r="E195" s="33"/>
       <c r="F195" s="33"/>
-      <c r="G195" s="278"/>
-      <c r="H195" s="278"/>
-      <c r="I195" s="278"/>
-      <c r="J195" s="278"/>
-      <c r="K195" s="278"/>
-      <c r="L195" s="278"/>
-      <c r="M195" s="276"/>
-      <c r="N195" s="276"/>
-      <c r="O195" s="278"/>
-      <c r="P195" s="278"/>
+      <c r="G195" s="272"/>
+      <c r="H195" s="272"/>
+      <c r="I195" s="272"/>
+      <c r="J195" s="272"/>
+      <c r="K195" s="272"/>
+      <c r="L195" s="272"/>
+      <c r="M195" s="273"/>
+      <c r="N195" s="273"/>
+      <c r="O195" s="272"/>
+      <c r="P195" s="272"/>
       <c r="Q195" s="35"/>
       <c r="R195" s="35"/>
     </row>
@@ -22783,16 +22826,16 @@
       <c r="D196" s="33"/>
       <c r="E196" s="33"/>
       <c r="F196" s="33"/>
-      <c r="G196" s="278"/>
-      <c r="H196" s="278"/>
-      <c r="I196" s="278"/>
-      <c r="J196" s="278"/>
-      <c r="K196" s="278"/>
-      <c r="L196" s="278"/>
-      <c r="M196" s="276"/>
-      <c r="N196" s="276"/>
-      <c r="O196" s="278"/>
-      <c r="P196" s="278"/>
+      <c r="G196" s="272"/>
+      <c r="H196" s="272"/>
+      <c r="I196" s="272"/>
+      <c r="J196" s="272"/>
+      <c r="K196" s="272"/>
+      <c r="L196" s="272"/>
+      <c r="M196" s="273"/>
+      <c r="N196" s="273"/>
+      <c r="O196" s="272"/>
+      <c r="P196" s="272"/>
       <c r="Q196" s="35"/>
       <c r="R196" s="35"/>
     </row>
@@ -22802,16 +22845,16 @@
       <c r="D197" s="33"/>
       <c r="E197" s="33"/>
       <c r="F197" s="33"/>
-      <c r="G197" s="278"/>
-      <c r="H197" s="278"/>
-      <c r="I197" s="278"/>
-      <c r="J197" s="278"/>
-      <c r="K197" s="278"/>
-      <c r="L197" s="278"/>
-      <c r="M197" s="276"/>
-      <c r="N197" s="276"/>
-      <c r="O197" s="278"/>
-      <c r="P197" s="278"/>
+      <c r="G197" s="272"/>
+      <c r="H197" s="272"/>
+      <c r="I197" s="272"/>
+      <c r="J197" s="272"/>
+      <c r="K197" s="272"/>
+      <c r="L197" s="272"/>
+      <c r="M197" s="273"/>
+      <c r="N197" s="273"/>
+      <c r="O197" s="272"/>
+      <c r="P197" s="272"/>
       <c r="Q197" s="35"/>
       <c r="R197" s="35"/>
     </row>
@@ -22821,16 +22864,16 @@
       <c r="D198" s="33"/>
       <c r="E198" s="33"/>
       <c r="F198" s="33"/>
-      <c r="G198" s="278"/>
-      <c r="H198" s="278"/>
-      <c r="I198" s="278"/>
-      <c r="J198" s="278"/>
-      <c r="K198" s="278"/>
-      <c r="L198" s="278"/>
-      <c r="M198" s="276"/>
-      <c r="N198" s="276"/>
-      <c r="O198" s="278"/>
-      <c r="P198" s="278"/>
+      <c r="G198" s="272"/>
+      <c r="H198" s="272"/>
+      <c r="I198" s="272"/>
+      <c r="J198" s="272"/>
+      <c r="K198" s="272"/>
+      <c r="L198" s="272"/>
+      <c r="M198" s="273"/>
+      <c r="N198" s="273"/>
+      <c r="O198" s="272"/>
+      <c r="P198" s="272"/>
       <c r="Q198" s="35"/>
       <c r="R198" s="35"/>
     </row>
@@ -22840,16 +22883,16 @@
       <c r="D199" s="33"/>
       <c r="E199" s="33"/>
       <c r="F199" s="33"/>
-      <c r="G199" s="278"/>
-      <c r="H199" s="278"/>
-      <c r="I199" s="278"/>
-      <c r="J199" s="278"/>
-      <c r="K199" s="278"/>
-      <c r="L199" s="278"/>
-      <c r="M199" s="276"/>
-      <c r="N199" s="276"/>
-      <c r="O199" s="278"/>
-      <c r="P199" s="278"/>
+      <c r="G199" s="272"/>
+      <c r="H199" s="272"/>
+      <c r="I199" s="272"/>
+      <c r="J199" s="272"/>
+      <c r="K199" s="272"/>
+      <c r="L199" s="272"/>
+      <c r="M199" s="273"/>
+      <c r="N199" s="273"/>
+      <c r="O199" s="272"/>
+      <c r="P199" s="272"/>
       <c r="Q199" s="35"/>
       <c r="R199" s="35"/>
     </row>
@@ -22859,16 +22902,16 @@
       <c r="D200" s="33"/>
       <c r="E200" s="33"/>
       <c r="F200" s="33"/>
-      <c r="G200" s="278"/>
-      <c r="H200" s="278"/>
-      <c r="I200" s="278"/>
-      <c r="J200" s="278"/>
-      <c r="K200" s="278"/>
-      <c r="L200" s="278"/>
-      <c r="M200" s="276"/>
-      <c r="N200" s="276"/>
-      <c r="O200" s="278"/>
-      <c r="P200" s="278"/>
+      <c r="G200" s="272"/>
+      <c r="H200" s="272"/>
+      <c r="I200" s="272"/>
+      <c r="J200" s="272"/>
+      <c r="K200" s="272"/>
+      <c r="L200" s="272"/>
+      <c r="M200" s="273"/>
+      <c r="N200" s="273"/>
+      <c r="O200" s="272"/>
+      <c r="P200" s="272"/>
       <c r="Q200" s="35"/>
       <c r="R200" s="35"/>
     </row>
@@ -22878,16 +22921,16 @@
       <c r="D201" s="33"/>
       <c r="E201" s="33"/>
       <c r="F201" s="33"/>
-      <c r="G201" s="278"/>
-      <c r="H201" s="278"/>
-      <c r="I201" s="278"/>
-      <c r="J201" s="278"/>
-      <c r="K201" s="278"/>
-      <c r="L201" s="278"/>
-      <c r="M201" s="276"/>
-      <c r="N201" s="276"/>
-      <c r="O201" s="278"/>
-      <c r="P201" s="278"/>
+      <c r="G201" s="272"/>
+      <c r="H201" s="272"/>
+      <c r="I201" s="272"/>
+      <c r="J201" s="272"/>
+      <c r="K201" s="272"/>
+      <c r="L201" s="272"/>
+      <c r="M201" s="273"/>
+      <c r="N201" s="273"/>
+      <c r="O201" s="272"/>
+      <c r="P201" s="272"/>
       <c r="Q201" s="35"/>
       <c r="R201" s="35"/>
     </row>
@@ -22897,16 +22940,16 @@
       <c r="D202" s="33"/>
       <c r="E202" s="33"/>
       <c r="F202" s="33"/>
-      <c r="G202" s="278"/>
-      <c r="H202" s="278"/>
-      <c r="I202" s="278"/>
-      <c r="J202" s="278"/>
-      <c r="K202" s="278"/>
-      <c r="L202" s="278"/>
-      <c r="M202" s="276"/>
-      <c r="N202" s="276"/>
-      <c r="O202" s="278"/>
-      <c r="P202" s="278"/>
+      <c r="G202" s="272"/>
+      <c r="H202" s="272"/>
+      <c r="I202" s="272"/>
+      <c r="J202" s="272"/>
+      <c r="K202" s="272"/>
+      <c r="L202" s="272"/>
+      <c r="M202" s="273"/>
+      <c r="N202" s="273"/>
+      <c r="O202" s="272"/>
+      <c r="P202" s="272"/>
       <c r="Q202" s="35"/>
       <c r="R202" s="35"/>
     </row>
@@ -22930,13 +22973,13 @@
       <c r="R203" s="49"/>
     </row>
     <row r="204" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="279"/>
-      <c r="C204" s="279"/>
-      <c r="D204" s="279"/>
-      <c r="E204" s="279"/>
-      <c r="F204" s="279"/>
-      <c r="G204" s="279"/>
-      <c r="H204" s="279"/>
+      <c r="B204" s="270"/>
+      <c r="C204" s="270"/>
+      <c r="D204" s="270"/>
+      <c r="E204" s="270"/>
+      <c r="F204" s="270"/>
+      <c r="G204" s="270"/>
+      <c r="H204" s="270"/>
       <c r="I204" s="49"/>
       <c r="J204" s="49"/>
       <c r="K204" s="49"/>
@@ -22950,12 +22993,12 @@
     </row>
     <row r="205" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="51"/>
-      <c r="C205" s="277"/>
-      <c r="D205" s="277"/>
-      <c r="E205" s="277"/>
-      <c r="F205" s="277"/>
-      <c r="G205" s="277"/>
-      <c r="H205" s="277"/>
+      <c r="C205" s="267"/>
+      <c r="D205" s="267"/>
+      <c r="E205" s="267"/>
+      <c r="F205" s="267"/>
+      <c r="G205" s="267"/>
+      <c r="H205" s="267"/>
       <c r="I205" s="49"/>
       <c r="J205" s="49"/>
       <c r="K205" s="49"/>
@@ -22969,12 +23012,12 @@
     </row>
     <row r="206" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="20"/>
-      <c r="C206" s="278"/>
-      <c r="D206" s="278"/>
-      <c r="E206" s="278"/>
-      <c r="F206" s="278"/>
-      <c r="G206" s="278"/>
-      <c r="H206" s="278"/>
+      <c r="C206" s="272"/>
+      <c r="D206" s="272"/>
+      <c r="E206" s="272"/>
+      <c r="F206" s="272"/>
+      <c r="G206" s="272"/>
+      <c r="H206" s="272"/>
       <c r="I206" s="49"/>
       <c r="J206" s="49"/>
       <c r="K206" s="49"/>
@@ -22988,12 +23031,12 @@
     </row>
     <row r="207" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="20"/>
-      <c r="C207" s="276"/>
-      <c r="D207" s="276"/>
-      <c r="E207" s="276"/>
-      <c r="F207" s="276"/>
-      <c r="G207" s="276"/>
-      <c r="H207" s="276"/>
+      <c r="C207" s="273"/>
+      <c r="D207" s="273"/>
+      <c r="E207" s="273"/>
+      <c r="F207" s="273"/>
+      <c r="G207" s="273"/>
+      <c r="H207" s="273"/>
       <c r="I207" s="49"/>
       <c r="J207" s="49"/>
       <c r="K207" s="49"/>
@@ -23007,12 +23050,12 @@
     </row>
     <row r="208" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="20"/>
-      <c r="C208" s="276"/>
-      <c r="D208" s="276"/>
-      <c r="E208" s="276"/>
-      <c r="F208" s="276"/>
-      <c r="G208" s="276"/>
-      <c r="H208" s="276"/>
+      <c r="C208" s="273"/>
+      <c r="D208" s="273"/>
+      <c r="E208" s="273"/>
+      <c r="F208" s="273"/>
+      <c r="G208" s="273"/>
+      <c r="H208" s="273"/>
       <c r="I208" s="49"/>
       <c r="J208" s="49"/>
       <c r="K208" s="49"/>
@@ -23026,12 +23069,12 @@
     </row>
     <row r="209" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="20"/>
-      <c r="C209" s="276"/>
-      <c r="D209" s="276"/>
-      <c r="E209" s="276"/>
-      <c r="F209" s="276"/>
-      <c r="G209" s="276"/>
-      <c r="H209" s="276"/>
+      <c r="C209" s="273"/>
+      <c r="D209" s="273"/>
+      <c r="E209" s="273"/>
+      <c r="F209" s="273"/>
+      <c r="G209" s="273"/>
+      <c r="H209" s="273"/>
       <c r="I209" s="49"/>
       <c r="J209" s="49"/>
       <c r="K209" s="49"/>
@@ -23045,12 +23088,12 @@
     </row>
     <row r="210" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="20"/>
-      <c r="C210" s="276"/>
-      <c r="D210" s="276"/>
-      <c r="E210" s="276"/>
-      <c r="F210" s="276"/>
-      <c r="G210" s="276"/>
-      <c r="H210" s="276"/>
+      <c r="C210" s="273"/>
+      <c r="D210" s="273"/>
+      <c r="E210" s="273"/>
+      <c r="F210" s="273"/>
+      <c r="G210" s="273"/>
+      <c r="H210" s="273"/>
       <c r="I210" s="49"/>
       <c r="J210" s="49"/>
       <c r="K210" s="49"/>
@@ -23064,12 +23107,12 @@
     </row>
     <row r="211" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="20"/>
-      <c r="C211" s="276"/>
-      <c r="D211" s="276"/>
-      <c r="E211" s="276"/>
-      <c r="F211" s="276"/>
-      <c r="G211" s="276"/>
-      <c r="H211" s="276"/>
+      <c r="C211" s="273"/>
+      <c r="D211" s="273"/>
+      <c r="E211" s="273"/>
+      <c r="F211" s="273"/>
+      <c r="G211" s="273"/>
+      <c r="H211" s="273"/>
       <c r="I211" s="49"/>
       <c r="J211" s="49"/>
       <c r="K211" s="49"/>
@@ -23083,12 +23126,12 @@
     </row>
     <row r="212" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="20"/>
-      <c r="C212" s="276"/>
-      <c r="D212" s="276"/>
-      <c r="E212" s="276"/>
-      <c r="F212" s="276"/>
-      <c r="G212" s="276"/>
-      <c r="H212" s="276"/>
+      <c r="C212" s="273"/>
+      <c r="D212" s="273"/>
+      <c r="E212" s="273"/>
+      <c r="F212" s="273"/>
+      <c r="G212" s="273"/>
+      <c r="H212" s="273"/>
       <c r="I212" s="49"/>
       <c r="J212" s="49"/>
       <c r="K212" s="49"/>
@@ -23102,12 +23145,12 @@
     </row>
     <row r="213" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="20"/>
-      <c r="C213" s="276"/>
-      <c r="D213" s="276"/>
-      <c r="E213" s="276"/>
-      <c r="F213" s="276"/>
-      <c r="G213" s="276"/>
-      <c r="H213" s="276"/>
+      <c r="C213" s="273"/>
+      <c r="D213" s="273"/>
+      <c r="E213" s="273"/>
+      <c r="F213" s="273"/>
+      <c r="G213" s="273"/>
+      <c r="H213" s="273"/>
       <c r="I213" s="49"/>
       <c r="J213" s="49"/>
       <c r="K213" s="49"/>
@@ -23121,12 +23164,12 @@
     </row>
     <row r="214" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="20"/>
-      <c r="C214" s="276"/>
-      <c r="D214" s="276"/>
-      <c r="E214" s="276"/>
-      <c r="F214" s="276"/>
-      <c r="G214" s="276"/>
-      <c r="H214" s="276"/>
+      <c r="C214" s="273"/>
+      <c r="D214" s="273"/>
+      <c r="E214" s="273"/>
+      <c r="F214" s="273"/>
+      <c r="G214" s="273"/>
+      <c r="H214" s="273"/>
       <c r="I214" s="49"/>
       <c r="J214" s="49"/>
       <c r="K214" s="49"/>
@@ -23140,12 +23183,12 @@
     </row>
     <row r="215" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="20"/>
-      <c r="C215" s="276"/>
-      <c r="D215" s="276"/>
-      <c r="E215" s="276"/>
-      <c r="F215" s="276"/>
-      <c r="G215" s="276"/>
-      <c r="H215" s="276"/>
+      <c r="C215" s="273"/>
+      <c r="D215" s="273"/>
+      <c r="E215" s="273"/>
+      <c r="F215" s="273"/>
+      <c r="G215" s="273"/>
+      <c r="H215" s="273"/>
       <c r="I215" s="49"/>
       <c r="J215" s="49"/>
       <c r="K215" s="49"/>
@@ -23177,13 +23220,13 @@
       <c r="R216" s="49"/>
     </row>
     <row r="217" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="279"/>
-      <c r="C217" s="279"/>
-      <c r="D217" s="279"/>
-      <c r="E217" s="279"/>
-      <c r="F217" s="279"/>
-      <c r="G217" s="279"/>
-      <c r="H217" s="279"/>
+      <c r="B217" s="270"/>
+      <c r="C217" s="270"/>
+      <c r="D217" s="270"/>
+      <c r="E217" s="270"/>
+      <c r="F217" s="270"/>
+      <c r="G217" s="270"/>
+      <c r="H217" s="270"/>
       <c r="I217" s="49"/>
       <c r="J217" s="49"/>
       <c r="K217" s="49"/>
@@ -23197,12 +23240,12 @@
     </row>
     <row r="218" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="51"/>
-      <c r="C218" s="277"/>
-      <c r="D218" s="277"/>
-      <c r="E218" s="277"/>
-      <c r="F218" s="277"/>
-      <c r="G218" s="277"/>
-      <c r="H218" s="277"/>
+      <c r="C218" s="267"/>
+      <c r="D218" s="267"/>
+      <c r="E218" s="267"/>
+      <c r="F218" s="267"/>
+      <c r="G218" s="267"/>
+      <c r="H218" s="267"/>
       <c r="I218" s="49"/>
       <c r="J218" s="49"/>
       <c r="K218" s="49"/>
@@ -23216,12 +23259,12 @@
     </row>
     <row r="219" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="20"/>
-      <c r="C219" s="278"/>
-      <c r="D219" s="278"/>
-      <c r="E219" s="278"/>
-      <c r="F219" s="278"/>
-      <c r="G219" s="278"/>
-      <c r="H219" s="278"/>
+      <c r="C219" s="272"/>
+      <c r="D219" s="272"/>
+      <c r="E219" s="272"/>
+      <c r="F219" s="272"/>
+      <c r="G219" s="272"/>
+      <c r="H219" s="272"/>
       <c r="I219" s="32"/>
       <c r="J219" s="32"/>
       <c r="K219" s="32"/>
@@ -23235,12 +23278,12 @@
     </row>
     <row r="220" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="20"/>
-      <c r="C220" s="276"/>
-      <c r="D220" s="276"/>
-      <c r="E220" s="276"/>
-      <c r="F220" s="276"/>
-      <c r="G220" s="276"/>
-      <c r="H220" s="276"/>
+      <c r="C220" s="273"/>
+      <c r="D220" s="273"/>
+      <c r="E220" s="273"/>
+      <c r="F220" s="273"/>
+      <c r="G220" s="273"/>
+      <c r="H220" s="273"/>
       <c r="I220" s="32"/>
       <c r="J220" s="32"/>
       <c r="K220" s="32"/>
@@ -23254,12 +23297,12 @@
     </row>
     <row r="221" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="20"/>
-      <c r="C221" s="276"/>
-      <c r="D221" s="276"/>
-      <c r="E221" s="276"/>
-      <c r="F221" s="276"/>
-      <c r="G221" s="276"/>
-      <c r="H221" s="276"/>
+      <c r="C221" s="273"/>
+      <c r="D221" s="273"/>
+      <c r="E221" s="273"/>
+      <c r="F221" s="273"/>
+      <c r="G221" s="273"/>
+      <c r="H221" s="273"/>
       <c r="I221" s="32"/>
       <c r="J221" s="32"/>
       <c r="K221" s="32"/>
@@ -23273,12 +23316,12 @@
     </row>
     <row r="222" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="20"/>
-      <c r="C222" s="276"/>
-      <c r="D222" s="276"/>
-      <c r="E222" s="276"/>
-      <c r="F222" s="276"/>
-      <c r="G222" s="276"/>
-      <c r="H222" s="276"/>
+      <c r="C222" s="273"/>
+      <c r="D222" s="273"/>
+      <c r="E222" s="273"/>
+      <c r="F222" s="273"/>
+      <c r="G222" s="273"/>
+      <c r="H222" s="273"/>
       <c r="I222" s="32"/>
       <c r="J222" s="32"/>
       <c r="K222" s="32"/>
@@ -23292,12 +23335,12 @@
     </row>
     <row r="223" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="20"/>
-      <c r="C223" s="276"/>
-      <c r="D223" s="276"/>
-      <c r="E223" s="276"/>
-      <c r="F223" s="276"/>
-      <c r="G223" s="276"/>
-      <c r="H223" s="276"/>
+      <c r="C223" s="273"/>
+      <c r="D223" s="273"/>
+      <c r="E223" s="273"/>
+      <c r="F223" s="273"/>
+      <c r="G223" s="273"/>
+      <c r="H223" s="273"/>
       <c r="I223" s="32"/>
       <c r="J223" s="32"/>
       <c r="K223" s="32"/>
@@ -23311,12 +23354,12 @@
     </row>
     <row r="224" spans="2:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="20"/>
-      <c r="C224" s="276"/>
-      <c r="D224" s="276"/>
-      <c r="E224" s="276"/>
-      <c r="F224" s="276"/>
-      <c r="G224" s="276"/>
-      <c r="H224" s="276"/>
+      <c r="C224" s="273"/>
+      <c r="D224" s="273"/>
+      <c r="E224" s="273"/>
+      <c r="F224" s="273"/>
+      <c r="G224" s="273"/>
+      <c r="H224" s="273"/>
       <c r="I224" s="32"/>
       <c r="J224" s="32"/>
       <c r="K224" s="32"/>
@@ -23330,77 +23373,17 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="B189:P189"/>
-    <mergeCell ref="B183:R183"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="O191:P191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="O193:P193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="I194:J194"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="I193:J193"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="O195:P195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="I196:J196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="I195:J195"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="I200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="C224:H224"/>
     <mergeCell ref="C218:H218"/>
     <mergeCell ref="C219:H219"/>
@@ -23421,17 +23404,77 @@
     <mergeCell ref="C213:H213"/>
     <mergeCell ref="C214:H214"/>
     <mergeCell ref="C215:H215"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="I200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="O195:P195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="I196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="I195:J195"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="O193:P193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="I194:J194"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="I193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="O191:P191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="B189:P189"/>
+    <mergeCell ref="B183:R183"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:L190"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="I191:I202 K191:K202 F191:G202 M191:M202 O191:O202 F185:F187 N185:P187 K185:L187">
@@ -23474,50 +23517,50 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="229"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
     </row>
     <row r="6" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="221" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="221"/>
     </row>
     <row r="7" spans="2:11" ht="38.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
@@ -23637,18 +23680,18 @@
       <c r="K13" s="172"/>
     </row>
     <row r="15" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="231" t="s">
+      <c r="B15" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="231"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="221"/>
     </row>
     <row r="16" spans="2:11" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="62" t="s">
